--- a/doc/µController-Berechnungen.xlsx
+++ b/doc/µController-Berechnungen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PowerConsumption" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,538 +13,605 @@
     <sheet name="HX2262" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="BitRate" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Kondensator" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Rollo-Fahrzeit" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="173">
-  <si>
-    <t>Batterie</t>
-  </si>
-  <si>
-    <t>Kapazität</t>
-  </si>
-  <si>
-    <t>mA/h</t>
-  </si>
-  <si>
-    <t>RFM69</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Idle Mode</t>
-  </si>
-  <si>
-    <t>µA/h</t>
-  </si>
-  <si>
-    <t>µA/ms</t>
-  </si>
-  <si>
-    <t>Receive Mode (spec 16mA)</t>
-  </si>
-  <si>
-    <t>Mit Stepup</t>
-  </si>
-  <si>
-    <t>gemessen</t>
-  </si>
-  <si>
-    <t>Ohne Maßnahmen</t>
-  </si>
-  <si>
-    <t>Teilfunktionen aus</t>
-  </si>
-  <si>
-    <t>RFM ListenMode idle
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="195">
+  <si>
+    <t xml:space="preserve">Batterie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFM69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idle Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µA/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µA/ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive Mode (spec 16mA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit Stepup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gemessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohne Maßnahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilfunktionen aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFM ListenMode idle
 + awake Atmega</t>
   </si>
   <si>
-    <t>RFM ListenMode idle 
+    <t xml:space="preserve">RFM ListenMode idle 
 + PowerDown Atmega</t>
   </si>
   <si>
-    <t>Stromverbrauch pro Cycle</t>
-  </si>
-  <si>
-    <t>Verbrauch mA/h</t>
-  </si>
-  <si>
-    <t>Gesamtverbrauch</t>
-  </si>
-  <si>
-    <t>Laufzeit</t>
-  </si>
-  <si>
-    <t>ListenResolIdle</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>µA</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>ListenResolRX</t>
-  </si>
-  <si>
-    <t>µs</t>
-  </si>
-  <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>Tage</t>
-  </si>
-  <si>
-    <t>Leistung auf 1.3V bezogen</t>
-  </si>
-  <si>
-    <t>Wochen</t>
-  </si>
-  <si>
-    <t>ListenCoefIdle</t>
-  </si>
-  <si>
-    <t>Monate</t>
-  </si>
-  <si>
-    <t>ListenCoefRX</t>
-  </si>
-  <si>
-    <t>bytes  im ListenRX Mode → 1 Byte muss drin sein</t>
-  </si>
-  <si>
-    <t>Jahre</t>
-  </si>
-  <si>
-    <t>RX (Satellite)</t>
-  </si>
-  <si>
-    <t>kbps bzw. bpms</t>
-  </si>
-  <si>
-    <t>ms pro bit</t>
-  </si>
-  <si>
-    <t>bytes</t>
-  </si>
-  <si>
-    <t>HeaderBytes (3x Preample; 3xSync; 1xLength; 1xToAdderss; 1xFromAddress; 1xDataOptions, 1xMsgCounter, MSG; 1xCRC) z.B. MSG: 03I02857A001F00 → ca. 15 bytes als MAX + 12Header+Footer</t>
-  </si>
-  <si>
-    <t>mit AES (1 oder 0)</t>
-  </si>
-  <si>
-    <t>mit AES und Header</t>
-  </si>
-  <si>
-    <t>Bytes (vielfaches von 16 + Overhead(13))</t>
-  </si>
-  <si>
-    <t>bits</t>
-  </si>
-  <si>
-    <t>ms (pro Paket)</t>
-  </si>
-  <si>
-    <t>Replys (Widerholungen pro Cycle (Idle+RX))</t>
-  </si>
-  <si>
-    <t>Faktor für Replycalculation im Quellcode</t>
-  </si>
-  <si>
-    <t>[(BiteRate * ListenPeriode/8) / FrameLength in Bytes]</t>
-  </si>
-  <si>
-    <t>(Timeout=TimeoutRxStart*16*T bit)</t>
-  </si>
-  <si>
-    <t>RXTimeout1</t>
-  </si>
-  <si>
-    <t>ms (RX→rssiThresh)</t>
-  </si>
-  <si>
-    <t>hex</t>
-  </si>
-  <si>
-    <t>RXTimeout2</t>
-  </si>
-  <si>
-    <t>ms (rssiThresh→Idle) *1.5 Safety</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>mA/h (20-130)</t>
-  </si>
-  <si>
-    <t>Events pro Tag</t>
-  </si>
-  <si>
-    <t>µA/h über 1 Tag</t>
-  </si>
-  <si>
-    <t>Atmega @8MHz</t>
-  </si>
-  <si>
-    <t>Event Dauer</t>
-  </si>
-  <si>
-    <t>PowerDown</t>
-  </si>
-  <si>
-    <t>idle</t>
-  </si>
-  <si>
-    <t>PullUps</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>kOhm</t>
-  </si>
-  <si>
-    <t>mA</t>
-  </si>
-  <si>
-    <t>StepUp</t>
-  </si>
-  <si>
-    <t>Ruhestrom</t>
-  </si>
-  <si>
-    <t>&lt;--19µA</t>
-  </si>
-  <si>
-    <t>Current multiplication?</t>
-  </si>
-  <si>
-    <t>&lt;--11µA</t>
-  </si>
-  <si>
-    <t>Wirkungsgrad</t>
-  </si>
-  <si>
-    <t>Rtop</t>
-  </si>
-  <si>
-    <t>Vout</t>
-  </si>
-  <si>
-    <t>Rbot</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Paketlänge</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>IR-Current</t>
-  </si>
-  <si>
-    <t>mA/ms</t>
-  </si>
-  <si>
-    <t>Verbrauch</t>
-  </si>
-  <si>
-    <t>mA/h über 1 Tag</t>
-  </si>
-  <si>
-    <t>3,3V</t>
-  </si>
-  <si>
-    <t>Widerstand Ohm</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>LDR</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>SC5262 / SC5272, HX2262 / HX2272, PT2262 / PT2272</t>
-  </si>
-  <si>
-    <t>Pollin Funk-Steckdosen-Set 2605 - Protocol:1 / BitLength:24 - (Link)</t>
-  </si>
-  <si>
-    <t>http://www.sweetpi.de/blog/329/ein-ueberblick-ueber-433mhz-funksteckdosen-und-deren-protokolle</t>
-  </si>
-  <si>
-    <t>Bit 0: 375μs hight + 1125μs low + 375μs hight + 1125μs low</t>
-  </si>
-  <si>
-    <t>Bit 1: 1125μs hight + 375μs low + 1125μs hight + 375μs low</t>
-  </si>
-  <si>
-    <t>Bit F (floating): 375μs hight + 1125μs low + 1125μs hight + 375μs low</t>
-  </si>
-  <si>
-    <t>Sync: 375µs high + 11625µs low</t>
-  </si>
-  <si>
-    <t>T (bitrate)</t>
-  </si>
-  <si>
-    <t>About 300 to 500 microseconds</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Sync</t>
-  </si>
-  <si>
-    <t>Protocol Bitlength</t>
-  </si>
-  <si>
-    <t>bytes + 4 bytes sync</t>
-  </si>
-  <si>
-    <t>RFM Sync</t>
-  </si>
-  <si>
-    <t>sync(80 00 00 00) housecode( 88 … )</t>
-  </si>
-  <si>
-    <t>Bitrate</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>4.8 kb/s</t>
-  </si>
-  <si>
-    <t>0A</t>
-  </si>
-  <si>
-    <t>Bitrate = FXO-SC/Bitrate (0-15)</t>
-  </si>
-  <si>
-    <t>kb/s</t>
-  </si>
-  <si>
-    <t>FXO-SC</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>0c80</t>
-  </si>
-  <si>
-    <t>FDEV</t>
-  </si>
-  <si>
-    <t>←- BR/2 &lt;= 500 kHz</t>
-  </si>
-  <si>
-    <t>BR = FXOSC / BitRate</t>
-  </si>
-  <si>
-    <t>Frequence</t>
-  </si>
-  <si>
-    <t>07,08,09</t>
-  </si>
-  <si>
-    <t>RxBw – FSK</t>
-  </si>
-  <si>
-    <t>kHz</t>
-  </si>
-  <si>
-    <t>(BitRate &lt; 2 * RxBw)</t>
-  </si>
-  <si>
-    <t>min (BitRate/2)</t>
-  </si>
-  <si>
-    <t>ListenMode</t>
-  </si>
-  <si>
-    <t>kb/s bzw. b/ms</t>
-  </si>
-  <si>
-    <t>[3xPreamble][3xSync][1xLen][1xtoAddress][1xfromAddress][1xXData_Config][1xMsgCounter][Msg][1xCRC]</t>
-  </si>
-  <si>
-    <t>header</t>
-  </si>
-  <si>
-    <t>[ms] Zeit Pro Frame</t>
-  </si>
-  <si>
-    <t>ms (ListenPeriode)</t>
-  </si>
-  <si>
-    <t>Faktor</t>
-  </si>
-  <si>
-    <t>OOK</t>
-  </si>
-  <si>
-    <t>µs (gemeinsamer Teiler)</t>
-  </si>
-  <si>
-    <t>kbits/s</t>
-  </si>
-  <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>E3 8C E3 33 8C CE 33 33 8E 33 38 CC CC CC CC CC CC CC CC CC CE 38 CC E3 33 8C 6 AF ED DF</t>
-  </si>
-  <si>
-    <t>10001100</t>
-  </si>
-  <si>
-    <t>01000000</t>
-  </si>
-  <si>
-    <t>1-aus</t>
-  </si>
-  <si>
-    <t>1101001001000110010000000000000000000110010010</t>
-  </si>
-  <si>
-    <t>11010010</t>
-  </si>
-  <si>
-    <t>01000110</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>000001100</t>
-  </si>
-  <si>
-    <t>0100100</t>
-  </si>
-  <si>
-    <t>1-an</t>
-  </si>
-  <si>
-    <t>1101001001000110010000000000001000100111010110</t>
-  </si>
-  <si>
-    <t>00000010</t>
-  </si>
-  <si>
-    <t>00100111</t>
-  </si>
-  <si>
-    <t>010110</t>
-  </si>
-  <si>
-    <t>2-aus</t>
-  </si>
-  <si>
-    <t>1101001001000110010000000110000000000110010100</t>
-  </si>
-  <si>
-    <t>01100000</t>
-  </si>
-  <si>
-    <t>00000110</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
-    <t>HOUSECODE</t>
-  </si>
-  <si>
-    <t>7e</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>TASTE</t>
-  </si>
-  <si>
-    <t>00; 01; 02</t>
-  </si>
-  <si>
-    <t>Frequenz</t>
-  </si>
-  <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>delta_U</t>
-  </si>
-  <si>
-    <t>delta_t</t>
-  </si>
-  <si>
-    <t>&lt;- Bei einem Brückengleichrichter (auch B2U-Gleichrichter) wird der Glättungskondensator immer nach einer halben Netz-Periodendauer, also bei 50 Hz alle 10 ms, aufgeladen</t>
-  </si>
-  <si>
-    <t>µF</t>
-  </si>
-  <si>
-    <t>nF</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Ohm</t>
-  </si>
-  <si>
-    <t>(Halbe Periodendauer _|-_|-_)</t>
+    <t xml:space="preserve">Stromverbrauch pro Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbrauch mA/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtverbrauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListenResolIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListenResolRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistung auf 1.3V bezogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListenCoefIdle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListenCoefRX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytes  im ListenRX Mode → 1 Byte muss drin sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX (Satellite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbps bzw. bpms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms pro bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeaderBytes (3x Preample; 3xSync; 1xLength; 1xToAdderss; 1xFromAddress; 1xDataOptions, 1xMsgCounter, MSG; 1xCRC) z.B. MSG: 03I02857A001F00 → ca. 15 bytes als MAX + 12Header+Footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit AES (1 oder 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit AES und Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bytes (vielfaches von 16 + Overhead(13))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms (pro Paket)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replys (Widerholungen pro Cycle (Idle+RX))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faktor für Replycalculation im Quellcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[(BiteRate * ListenPeriode/8) / FrameLength in Bytes]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Timeout=TimeoutRxStart*16*T bit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RXTimeout1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms (RX→rssiThresh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RXTimeout2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms (rssiThresh→Idle) *1.5 Safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA/h (20-130)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Events pro Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µA/h über 1 Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmega @8MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Dauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PullUps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StepUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruhestrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;--19µA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current multiplication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;--11µA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wirkungsgrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rtop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paketlänge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR-Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA/ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbrauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA/h über 1 Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widerstand Ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC5262 / SC5272, HX2262 / HX2272, PT2262 / PT2272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollin Funk-Steckdosen-Set 2605 - Protocol:1 / BitLength:24 - (Link)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sweetpi.de/blog/329/ein-ueberblick-ueber-433mhz-funksteckdosen-und-deren-protokolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit 0: 375μs hight + 1125μs low + 375μs hight + 1125μs low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit 1: 1125μs hight + 375μs low + 1125μs hight + 375μs low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit F (floating): 375μs hight + 1125μs low + 1125μs hight + 375μs low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync: 375µs high + 11625µs low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T (bitrate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About 300 to 500 microseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol Bitlength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bytes + 4 bytes sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFM Sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sync(80 00 00 00) housecode( 88 … )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 kb/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitrate = FXO-SC/Bitrate (0-15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kb/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FXO-SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">←- BR/2 &lt;= 500 kHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR = FXOSC / BitRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07,08,09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RxBw – FSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(BitRate &lt; 2 * RxBw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (BitRate/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListenMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kb/s bzw. b/ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3xPreamble][3xSync][1xLen][1xtoAddress][1xfromAddress][1xXData_Config][1xMsgCounter][Msg][1xCRC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ms] Zeit Pro Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms (ListenPeriode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µs (gemeinsamer Teiler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbits/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3 8C E3 33 8C CE 33 33 8E 33 38 CC CC CC CC CC CC CC CC CC CE 38 CC E3 33 8C 6 AF ED DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10001100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101001001000110010000000000000000000110010010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11010010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01000110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000001100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101001001000110010000000000001000100111010110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1101001001000110010000000110000000000110010100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOUSECODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00; 01; 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;- Bei einem Brückengleichrichter (auch B2U-Gleichrichter) wird der Glättungskondensator immer nach einer halben Netz-Periodendauer, also bei 50 Hz alle 10 ms, aufgeladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Halbe Periodendauer _|-_|-_)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicke des Panzers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchmesser des aufgewickelten Panzers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagen auf der Rolle bei Wellendurchmesser 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r/d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motordrehzahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL35 10/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrzeit nach unten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrstrecke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_oben (Bogenmaß)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wickeldiff durch Fahrzeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta_rad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phi_unten (Bogenmaß)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorspeed</t>
   </si>
 </sst>
 </file>
@@ -552,7 +619,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
@@ -599,7 +666,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,7 +688,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0099FF"/>
-        <bgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF0099FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -662,7 +735,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,6 +832,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -784,7 +869,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0099FF"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -803,7 +888,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF0099FF"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -843,9 +928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -858,8 +943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="779040" y="6595560"/>
-          <a:ext cx="4736160" cy="5680800"/>
+          <a:off x="838080" y="6595560"/>
+          <a:ext cx="5149440" cy="5680440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,9 +965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>126720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -895,8 +980,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="711360" y="4828320"/>
-          <a:ext cx="6033600" cy="1645560"/>
+          <a:off x="770400" y="4828320"/>
+          <a:ext cx="6564600" cy="1645200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -922,9 +1007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>468360</xdr:colOff>
+      <xdr:colOff>468000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -937,8 +1022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="924840" y="923760"/>
-          <a:ext cx="914760" cy="446040"/>
+          <a:off x="983880" y="923760"/>
+          <a:ext cx="914760" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -974,8 +1059,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="894960" y="2090880"/>
-          <a:ext cx="885960" cy="445320"/>
+          <a:off x="954000" y="2090880"/>
+          <a:ext cx="885960" cy="444960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,24 +1082,24 @@
   </sheetPr>
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="1" sqref="K11:K12 B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.87244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.87244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1938775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1071428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.87244897959184"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1922,7 +2007,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1937,13 +2022,13 @@
   </sheetPr>
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="K11:K12 D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.48469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.48"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,7 +2188,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2118,13 +2203,15 @@
   </sheetPr>
   <dimension ref="B3:O25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="1" sqref="K11:K12 F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="12" min="5" style="0" width="1.69897959183673"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="1.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.86"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2542,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2471,15 +2558,15 @@
   </sheetPr>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="K11:K12 A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.48469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.48469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4274,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -4202,13 +4289,15 @@
   </sheetPr>
   <dimension ref="C3:G27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="K11:K12 B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4183673469388"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.86"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,11 +4484,232 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B3:K18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11:K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <f aca="false">C4/2/C3</f>
+        <v>12.0833333333333</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="16" t="n">
+        <f aca="false">2*PI()*C5</f>
+        <v>75.9218224617533</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="16" t="n">
+        <f aca="false">C13</f>
+        <v>75.9218224617533</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <f aca="false">C7*2*PI()*C11/60</f>
+        <v>37.3849525777185</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <f aca="false">F13-F15</f>
+        <v>15.3435423316539</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="16" t="n">
+        <f aca="false">C13-C14</f>
+        <v>38.5368698840348</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="16" t="n">
+        <f aca="false">SQRT((F11*2/C17-(F13*F13))*-1)</f>
+        <v>60.5782801300994</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <f aca="false">C3/2/PI()</f>
+        <v>0.0954929658551372</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="25" t="n">
+        <f aca="false">C17/2*(C13*C13 - C15*C15)</f>
+        <v>204.308765837232</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="26" t="n">
+        <f aca="false">F14*60/(C7*2*PI())</f>
+        <v>8.61882567043223</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">60*F14/J12/2/PI()</f>
+        <v>7.18235472536019</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>